--- a/pixel_map/Book1.xlsx
+++ b/pixel_map/Book1.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10613"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10709"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rfguerreros/Documents/Academic/Purdue/purdue_laser_box/pixel_map/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59949BCA-E087-3143-B191-B33AD2785EAA}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26FCF854-28FF-0549-9060-4E403B0CDD1E}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="440" windowWidth="28040" windowHeight="17060" activeTab="2" xr2:uid="{83397865-99C6-324F-B751-031511B67050}"/>
   </bookViews>
   <sheets>
     <sheet name="DATA" sheetId="1" r:id="rId1"/>
     <sheet name="Pixel" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="s" sheetId="4" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="179017"/>
+  <calcPr calcId="179021"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -5774,26 +5774,13 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF508601-FBEF-4A41-A477-6067536BA906}">
-  <dimension ref="I19:J19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED0D0FB3-1CE9-274B-ABC0-C2AA3D13F7C5}">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="19" spans="9:10" x14ac:dyDescent="0.2">
-      <c r="I19">
-        <f>ATAN(0.075/30)</f>
-        <v>2.4999947916861977E-3</v>
-      </c>
-      <c r="J19">
-        <f>I19*180/PI()</f>
-        <v>0.14323915036830656</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>